--- a/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1048362213532466</v>
+        <v>0.1036770793562266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1241833945823999</v>
+        <v>0.1258448811375216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1226857290691917</v>
+        <v>0.1222231943668278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1318290383561369</v>
+        <v>0.1363300615829671</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1377789220422675</v>
+        <v>0.1370917470186176</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1348343461731713</v>
+        <v>0.1376314454930508</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1270711593581852</v>
+        <v>0.1273004902528849</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1412266194294409</v>
+        <v>0.140220149278276</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1398714856069376</v>
+        <v>0.1377467742229657</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1700626176448741</v>
+        <v>0.1692771631847262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2037441648904821</v>
+        <v>0.1984972963914888</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1953979451594379</v>
+        <v>0.1999239775994213</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2207770256944415</v>
+        <v>0.2204924853996653</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2371637992606316</v>
+        <v>0.2337714936555154</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2203137276721476</v>
+        <v>0.2175196072614281</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1776952074617897</v>
+        <v>0.1790744360467945</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2003224818859428</v>
+        <v>0.1974875096531533</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1936576945250865</v>
+        <v>0.1914566247787607</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06129853745536048</v>
+        <v>0.06025922505558912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08705889084710644</v>
+        <v>0.08499449083693891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1027478656160823</v>
+        <v>0.1047640024456146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09133977244400429</v>
+        <v>0.0935378313403033</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09277356975656058</v>
+        <v>0.09618518292085552</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1232457156365249</v>
+        <v>0.1247564616986796</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08474179984261257</v>
+        <v>0.08563163742422379</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0986639230935531</v>
+        <v>0.09882368092356152</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1240751250269759</v>
+        <v>0.1243793663836727</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1253425541851197</v>
+        <v>0.1221103668701652</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1562568209999597</v>
+        <v>0.1598476496950943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1752910041462964</v>
+        <v>0.1817134270968043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1637232763814824</v>
+        <v>0.1689542512990941</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1698356686993686</v>
+        <v>0.1756130723170812</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.202355534614705</v>
+        <v>0.2040497615328478</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1299519365391968</v>
+        <v>0.131175038832753</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1510802508306616</v>
+        <v>0.1518055189306541</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1772896011725249</v>
+        <v>0.1762404274885893</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06687404191509029</v>
+        <v>0.06558596013175959</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07815162916772782</v>
+        <v>0.07867141502440646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0782095388862806</v>
+        <v>0.07683792301010742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06328798866461735</v>
+        <v>0.06399854137647321</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07209107066590466</v>
+        <v>0.07377863976333207</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06138255437384932</v>
+        <v>0.05803177293681402</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07221436462251413</v>
+        <v>0.07093204834495703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08420749663858319</v>
+        <v>0.08270641970664928</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07980392013978302</v>
+        <v>0.07865932813837422</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1164690055701003</v>
+        <v>0.1173193557558879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1281388725215202</v>
+        <v>0.1334607998133973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1294440965749359</v>
+        <v>0.1331551348447322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1625976827840899</v>
+        <v>0.1599422123461617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.150343848839456</v>
+        <v>0.1491384975234501</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1631818737084436</v>
+        <v>0.1576968196492884</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1167205028819132</v>
+        <v>0.1159412556320082</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1275391390068471</v>
+        <v>0.1259388223320269</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1264404143771005</v>
+        <v>0.1260679878300041</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04348733419506934</v>
+        <v>0.04336928099507163</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09805138965460274</v>
+        <v>0.09780994262180018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09459819450107475</v>
+        <v>0.09407017892360971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07976472010005388</v>
+        <v>0.07918590231507812</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08910495829241326</v>
+        <v>0.08756937438070735</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1216936562807699</v>
+        <v>0.1220458604331585</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06198852853274286</v>
+        <v>0.06239962867163133</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09994291653457585</v>
+        <v>0.09960401975020042</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1093718290616401</v>
+        <v>0.1111201248092443</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07123600861629355</v>
+        <v>0.07098265223953558</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1388891171991033</v>
+        <v>0.13761119608539</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1309084646564211</v>
+        <v>0.1309462494299335</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.126130892256757</v>
+        <v>0.1235993299565579</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1357934695119418</v>
+        <v>0.1350858456584156</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.171384244676899</v>
+        <v>0.1713931025671407</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08629387682954284</v>
+        <v>0.08563200217269666</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1299302901016987</v>
+        <v>0.1303034713037244</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1424605925123322</v>
+        <v>0.141034309125818</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04423580902857221</v>
+        <v>0.04192503188987153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06369703450756996</v>
+        <v>0.06283975296749655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1030221995935223</v>
+        <v>0.1037161644560683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05659386282272997</v>
+        <v>0.05489928349284608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08364400627504874</v>
+        <v>0.08262375018896481</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09915168003785353</v>
+        <v>0.1015517636816584</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05800295295659993</v>
+        <v>0.05728772229428208</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07963192358582104</v>
+        <v>0.08099925579172831</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.109546239820258</v>
+        <v>0.109020911290835</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1001146444287571</v>
+        <v>0.0996870446737303</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1134491418267716</v>
+        <v>0.1112671496671824</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.157614370532594</v>
+        <v>0.1611519376639793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1057949035725449</v>
+        <v>0.1016034350439223</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1301716169258051</v>
+        <v>0.128653234655673</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1473613396693381</v>
+        <v>0.1506026981806466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09305962651733013</v>
+        <v>0.09389425922101152</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1138372290794717</v>
+        <v>0.115537443929989</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.143993061789718</v>
+        <v>0.1468310283428392</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05842884265098477</v>
+        <v>0.05886390897876342</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1354122912957282</v>
+        <v>0.1355560190612996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1587914946142827</v>
+        <v>0.1600762426151753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0858639002943377</v>
+        <v>0.08494422233079063</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1202884972917808</v>
+        <v>0.1200886270349971</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09217256953418249</v>
+        <v>0.09436825819906419</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08463416864599485</v>
+        <v>0.08404255224355436</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.128715648593332</v>
+        <v>0.1306599025582436</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1137901807988182</v>
+        <v>0.1127732734448912</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1219555952684373</v>
+        <v>0.125598835925044</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2258895547071245</v>
+        <v>0.2279294012277147</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2540760794432183</v>
+        <v>0.251988292541688</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1194952958027811</v>
+        <v>0.1176828488078329</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1650689063402564</v>
+        <v>0.16139569558679</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1345081962416266</v>
+        <v>0.1339694108163128</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1140450562692005</v>
+        <v>0.1141566040433649</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.167243196463061</v>
+        <v>0.1699643496443984</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1504894081732012</v>
+        <v>0.1510982819696788</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0714961288718363</v>
+        <v>0.07026430316310027</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1085660957438</v>
+        <v>0.1094567611446798</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1182622923184939</v>
+        <v>0.1176859951209713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09687938527912163</v>
+        <v>0.09619504151850961</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1149041931966043</v>
+        <v>0.1145728090010209</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1220433554026125</v>
+        <v>0.122166467789916</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08684052788747418</v>
+        <v>0.08675220150459997</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1145645380868261</v>
+        <v>0.1140233984489148</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1234594027357176</v>
+        <v>0.1227622262922125</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09082744219167797</v>
+        <v>0.09046477379467266</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1313306045594882</v>
+        <v>0.1322826315051286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1417896056245972</v>
+        <v>0.1411123867278993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1177803463824031</v>
+        <v>0.1184864985237178</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1377252772858748</v>
+        <v>0.137741424916637</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1449097752497218</v>
+        <v>0.1445126909736915</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1017677708526467</v>
+        <v>0.1012901049104294</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1298900352405476</v>
+        <v>0.1307351349807528</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1398556303301907</v>
+        <v>0.1398429701581932</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49575</v>
+        <v>49027</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>54294</v>
+        <v>55021</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52643</v>
+        <v>52445</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40429</v>
+        <v>41810</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43165</v>
+        <v>42950</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>46795</v>
+        <v>47766</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>99059</v>
+        <v>99238</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>105991</v>
+        <v>105236</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>108561</v>
+        <v>106912</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>80419</v>
+        <v>80047</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>89079</v>
+        <v>86785</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83844</v>
+        <v>85786</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67708</v>
+        <v>67621</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74302</v>
+        <v>73239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>76461</v>
+        <v>75491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>138524</v>
+        <v>139599</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>150343</v>
+        <v>148215</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>150307</v>
+        <v>148598</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22384</v>
+        <v>22004</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36283</v>
+        <v>35423</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38759</v>
+        <v>39520</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33868</v>
+        <v>34683</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31358</v>
+        <v>32512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45744</v>
+        <v>46305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62366</v>
+        <v>63021</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>74470</v>
+        <v>74590</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>92856</v>
+        <v>93084</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45771</v>
+        <v>44590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65123</v>
+        <v>66620</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>66124</v>
+        <v>68547</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60707</v>
+        <v>62647</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>57406</v>
+        <v>59359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75106</v>
+        <v>75735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>95639</v>
+        <v>96539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>114032</v>
+        <v>114580</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>132681</v>
+        <v>131896</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36137</v>
+        <v>35441</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49043</v>
+        <v>49370</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40732</v>
+        <v>40018</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10619</v>
+        <v>10738</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18753</v>
+        <v>19192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10197</v>
+        <v>9640</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51139</v>
+        <v>50231</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>74748</v>
+        <v>73416</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54820</v>
+        <v>54034</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62937</v>
+        <v>63396</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>80412</v>
+        <v>83752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67416</v>
+        <v>69349</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27281</v>
+        <v>26835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39109</v>
+        <v>38795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27108</v>
+        <v>26197</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>82656</v>
+        <v>82104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>113213</v>
+        <v>111792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>86856</v>
+        <v>86600</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53763</v>
+        <v>53617</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>113536</v>
+        <v>113257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>108651</v>
+        <v>108045</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>56897</v>
+        <v>56484</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>68136</v>
+        <v>66961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>100504</v>
+        <v>100795</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>120853</v>
+        <v>121654</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>192149</v>
+        <v>191498</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>215947</v>
+        <v>219399</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>88068</v>
+        <v>87755</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>160823</v>
+        <v>159343</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150356</v>
+        <v>150399</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>89970</v>
+        <v>88165</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>103837</v>
+        <v>103296</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>141542</v>
+        <v>141549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>168239</v>
+        <v>166948</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>249803</v>
+        <v>250520</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>281279</v>
+        <v>278463</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15507</v>
+        <v>14697</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32465</v>
+        <v>32028</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63763</v>
+        <v>64192</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>32076</v>
+        <v>31116</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>63448</v>
+        <v>62674</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>73198</v>
+        <v>74970</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>53208</v>
+        <v>52552</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>100992</v>
+        <v>102726</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>148672</v>
+        <v>147959</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35096</v>
+        <v>34946</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57823</v>
+        <v>56711</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>97551</v>
+        <v>99740</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59962</v>
+        <v>57586</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>98742</v>
+        <v>97590</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>108789</v>
+        <v>111182</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>85367</v>
+        <v>86132</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>144372</v>
+        <v>146528</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>195422</v>
+        <v>199274</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>17424</v>
+        <v>17553</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>36139</v>
+        <v>36177</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45596</v>
+        <v>45965</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>107223</v>
+        <v>106075</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>133442</v>
+        <v>133220</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>99536</v>
+        <v>101907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>130926</v>
+        <v>130010</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>177143</v>
+        <v>179818</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>155555</v>
+        <v>154164</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>36367</v>
+        <v>37454</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60286</v>
+        <v>60830</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72957</v>
+        <v>72357</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>149221</v>
+        <v>146958</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>183119</v>
+        <v>179044</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>145253</v>
+        <v>144672</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>176423</v>
+        <v>176596</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>230166</v>
+        <v>233911</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>205724</v>
+        <v>206556</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>233325</v>
+        <v>229305</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>370863</v>
+        <v>373905</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>399934</v>
+        <v>397985</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>326881</v>
+        <v>324572</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>407221</v>
+        <v>406046</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>430611</v>
+        <v>431045</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>576410</v>
+        <v>575823</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>797370</v>
+        <v>793604</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>853116</v>
+        <v>848299</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>296412</v>
+        <v>295228</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>448626</v>
+        <v>451879</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>479497</v>
+        <v>477207</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>397403</v>
+        <v>399785</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>488099</v>
+        <v>488156</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>511292</v>
+        <v>509890</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>675490</v>
+        <v>672320</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>904036</v>
+        <v>909918</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>966416</v>
+        <v>966328</v>
       </c>
     </row>
     <row r="32">
